--- a/akademicky_rok_2019_2020_zimni_semestr/_13_cviceni_.xlsx
+++ b/akademicky_rok_2019_2020_zimni_semestr/_13_cviceni_.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="HDP_sezonnost" sheetId="6" r:id="rId1"/>
+    <sheet name="dve_prodejny" sheetId="7" r:id="rId2"/>
+    <sheet name="pet_druhu_zbozi" sheetId="8" r:id="rId3"/>
+    <sheet name="bazicke_a_retezove_indexy" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Rok</t>
   </si>
@@ -57,13 +60,67 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Množství</t>
+  </si>
+  <si>
+    <t>leden</t>
+  </si>
+  <si>
+    <t>únor</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>prodejna</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>množství</t>
+  </si>
+  <si>
+    <t>první</t>
+  </si>
+  <si>
+    <t>druhá</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>březen</t>
+  </si>
+  <si>
+    <t>červen</t>
+  </si>
+  <si>
+    <t>zboží</t>
+  </si>
+  <si>
+    <t>rok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,24 +139,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,11 +176,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,13 +204,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,18 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
@@ -501,15 +594,8 @@
       <c r="G2" s="3">
         <v>576665</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -534,15 +620,8 @@
       <c r="G3" s="3">
         <v>630141</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -567,15 +646,8 @@
       <c r="G4" s="3">
         <v>621004</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -600,15 +672,8 @@
       <c r="G5" s="3">
         <v>636622</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2003</v>
       </c>
@@ -633,15 +698,8 @@
       <c r="G6" s="3">
         <v>598385</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -666,15 +724,8 @@
       <c r="G7" s="3">
         <v>660401</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2003</v>
       </c>
@@ -699,15 +750,8 @@
       <c r="G8" s="3">
         <v>650791</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2003</v>
       </c>
@@ -732,15 +776,8 @@
       <c r="G9" s="3">
         <v>667533</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2004</v>
       </c>
@@ -765,15 +802,8 @@
       <c r="G10" s="3">
         <v>643425</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -798,15 +828,8 @@
       <c r="G11" s="3">
         <v>710140</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2004</v>
       </c>
@@ -831,15 +854,8 @@
       <c r="G12" s="3">
         <v>706016</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2004</v>
       </c>
@@ -864,15 +880,8 @@
       <c r="G13" s="3">
         <v>721479</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -897,15 +906,8 @@
       <c r="G14" s="3">
         <v>689426</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -930,15 +932,8 @@
       <c r="G15" s="3">
         <v>756778</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2005</v>
       </c>
@@ -963,15 +958,8 @@
       <c r="G16" s="3">
         <v>750164</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -996,15 +984,8 @@
       <c r="G17" s="3">
         <v>773893</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -1029,15 +1010,8 @@
       <c r="G18" s="3">
         <v>737477</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2006</v>
       </c>
@@ -1062,15 +1036,8 @@
       <c r="G19" s="3">
         <v>813259</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -1095,15 +1062,8 @@
       <c r="G20" s="3">
         <v>813988</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2006</v>
       </c>
@@ -1128,25 +1088,326 @@
       <c r="G21" s="3">
         <v>839362</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="8">
+        <v>950</v>
+      </c>
+      <c r="E3" s="8">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1050</v>
+      </c>
+      <c r="D4" s="8">
+        <v>890</v>
+      </c>
+      <c r="E4" s="8">
+        <v>105</v>
+      </c>
+      <c r="F4" s="8">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>50</v>
+      </c>
+      <c r="F4" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2189.1999999999998</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2352.1999999999998</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2464.4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2577.1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2781.1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2978.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>